--- a/02_MasterWifoMannheim/99_Backup/Course106.xlsx
+++ b/02_MasterWifoMannheim/99_Backup/Course106.xlsx
@@ -1,136 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mailunimannheimde-my.sharepoint.com/personal/pstapf_mail_uni-mannheim_de/Documents/Uni/Master/Masterarbeit/Course_Suggestion/02_MasterWifoMannheim/03_Courses/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_2B59D2BFD32051265F592811593958324E61E0BF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0F1A5602-B37E-455D-BCA8-3DDFFE551AB2}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
-  <si>
-    <t>Module</t>
-  </si>
-  <si>
-    <t>MAN 631 Creativity and Entrepreneurship in Practice</t>
-  </si>
-  <si>
-    <t>C Sontent</t>
-  </si>
-  <si>
-    <t>The course `Creativity and Entrepreneurship in Practice´ introduces concepts of creativity and entrepreneurship and tools to develop business designs and eventually business models. Whereas MAN 633 Entrepreneurial starts at the very grassroots of building a business – with team building, ideation and design thinking. deck that will be presented in a real startup pitch setting with a jury including experts from the private equity, legal, consulting and academic world. Thus, all the projects that will be developed in this class are taken seriously and will be developed into real ventures by the end of class – no showcases, simple write-ups whatsoever. You can expect tremendous opportunities for your personal and entrepreneurial development in this class – including growing your network into the German startup scene and beyond. upsides and downsides: The course is tons of fun and highly rewarding but challenging and highly demanding in terms of the team settings and the workload required to build a great venture. If you want the real startup experience with its real ups and downs, MAN 631 is your perfect choice. Please beware that once the team building has been conducted, you cannot leave this class without failing it – just like in a real startup setting when you let your team down. What you can expect from us is dedicated and continuous feedback to advance your projects, intros to MCEI partners who can help you grow and a fun and rewarding atmosphere to create something new in class. Do not miss out on our throughout the semester to maximize your Startup experience. ide note on choosing MAN 631 vs. alternatives (i.e., when not to choose MAN 631):  If you already have a team and an advanced business idea, apply for our Own Venture Track.  If you want to scout a team (i.e., you need a team) to implement your advanced own business idea, apply for our MAN 633 Own Venture Track.  If you want to advance an existing startup project and get the feeling of what it is like to work in a Startup with all the responsibilities this brings along, join our Inside the Venture Track.  If you expect a more traditional lecture setting, join Entrepreneurship.</t>
-  </si>
-  <si>
-    <t>Learning outcomes</t>
-  </si>
-  <si>
-    <t>By the end of the module students will have...  explored and developed their own entrepreneurial creativity.  their own startup team.  an advanced startup idea that tackles a real customer need.  a pitch deck and business plan on their startup idea for following up on the project.  presented and defended the concept of their project in front of an expert jury.  gained financing opportunities to pursue their venture (depending on performance). gained lots of feedback on their personal and professional development in real life settings.  developed skills and abilities that can be applied to improve their effectiveness in the rest of their studies and in their lives – including team building skills.</t>
-  </si>
-  <si>
-    <t>Prerequisites</t>
-  </si>
-  <si>
-    <t>Obligatory registration: kick-off meeting (see course website)</t>
-  </si>
-  <si>
-    <t>Further information on registration: www.mcei.de/teaching</t>
-  </si>
-  <si>
-    <t>Courses Hours per week Self-study Lecture with workshop 2 10</t>
-  </si>
-  <si>
-    <t>ECTS</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>Form of assessment</t>
-  </si>
-  <si>
-    <t>Pitch Presentations (35%), Business Plan (35%), Exam (20%), Peer Evaluation (10%)</t>
-  </si>
-  <si>
-    <t>Preliminary course work -</t>
-  </si>
-  <si>
-    <t>Lecturer/Person in charge</t>
-  </si>
-  <si>
-    <t>Nora Zybura, Dr. Bettina Müller, Thomas Hipp</t>
-  </si>
-  <si>
-    <t>Duration of module</t>
-  </si>
-  <si>
-    <t>1 Semester</t>
-  </si>
-  <si>
-    <t>Offering</t>
-  </si>
-  <si>
-    <t>Fall semester</t>
-  </si>
-  <si>
-    <t>Language</t>
-  </si>
-  <si>
-    <t>English</t>
-  </si>
-  <si>
-    <t>Program-specific educational goals</t>
-  </si>
-  <si>
-    <t>Grade</t>
-  </si>
-  <si>
-    <t>graded</t>
-  </si>
-  <si>
-    <t>Range of application</t>
-  </si>
-  <si>
-    <t>M.Sc. MMM, M.Sc. MMBR, M.Sc. Bus. Edu., M.Sc. Bus. Inf., LL.M., M.Sc. Econ., M.A. K&amp;W</t>
-  </si>
-  <si>
-    <t>MAN 630, MAN 632</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -145,43 +46,93 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -469,140 +420,205 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1">
+    <row r="1">
+      <c r="A1" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B1" s="1">
+      <c r="B1" s="1" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>19</v>
-      </c>
-      <c r="B13" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>21</v>
-      </c>
-      <c r="B14" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>24</v>
-      </c>
-      <c r="B16" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>26</v>
-      </c>
-      <c r="B17" t="s">
-        <v>27</v>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Module</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>MAN 631 Creativity and Entrepreneurship in Practice</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>C Sontent</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>The course `Creativity and Entrepreneurship in Practice´ introduces concepts of creativity and entrepreneurship and tools to develop business designs and eventually business models. Whereas MAN 633 Entrepreneurial starts at the very grassroots of building a business – with team building, ideation and design thinking. deck that will be presented in a real startup pitch setting with a jury including experts from the private equity, legal, consulting and academic world. Thus, all the projects that will be developed in this class are taken seriously and will be developed into real ventures by the end of class – no showcases, simple write-ups whatsoever. You can expect tremendous opportunities for your personal and entrepreneurial development in this class – including growing your network into the German startup scene and beyond. upsides and downsides: The course is tons of fun and highly rewarding but challenging and highly demanding in terms of the team settings and the workload required to build a great venture. If you want the real startup experience with its real ups and downs, MAN 631 is your perfect choice. Please beware that once the team building has been conducted, you cannot leave this class without failing it – just like in a real startup setting when you let your team down. What you can expect from us is dedicated and continuous feedback to advance your projects, intros to MCEI partners who can help you grow and a fun and rewarding atmosphere to create something new in class. Do not miss out on our throughout the semester to maximize your Startup experience. ide note on choosing MAN 631 vs. alternatives (i.e., when not to choose MAN 631):  If you already have a team and an advanced business idea, apply for our Own Venture Track.  If you want to scout a team (i.e., you need a team) to implement your advanced own business idea, apply for our MAN 633 Own Venture Track.  If you want to advance an existing startup project and get the feeling of what it is like to work in a Startup with all the responsibilities this brings along, join our Inside the Venture Track.  If you expect a more traditional lecture setting, join Entrepreneurship.</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Learning outcomes</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>By the end of the module students will have...  explored and developed their own entrepreneurial creativity.  their own startup team.  an advanced startup idea that tackles a real customer need.  a pitch deck and business plan on their startup idea for following up on the project.  presented and defended the concept of their project in front of an expert jury.  gained financing opportunities to pursue their venture (depending on performance). gained lots of feedback on their personal and professional development in real life settings.  developed skills and abilities that can be applied to improve their effectiveness in the rest of their studies and in their lives – including team building skills.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Prerequisites</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>MAN 630, MAN 632</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Obligatory registration: kick-off meeting (see course website)</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Further information on registration: www.mcei.de/teaching</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Courses Hours per week Self-study Lecture with workshop 2 10</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>ECTS</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Form of assessment</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Pitch Presentations (35%), Business Plan (35%), Exam (20%), Peer Evaluation (10%)</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Preliminary course work -</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Lecturer/Person in charge</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Nora Zybura, Dr. Bettina Müller, Thomas Hipp</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Duration of module</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>1 Semester</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Offering</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>FWS</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Language</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>English</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Program-specific educational goals</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Grade</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>graded</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Range of application</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>M.Sc. MMM, M.Sc. MMBR, M.Sc. Bus. Edu., M.Sc. Bus. Inf., LL.M., M.Sc. Econ., M.A. K&amp;W</t>
+        </is>
       </c>
     </row>
   </sheetData>
